--- a/data/trans_orig/P1417-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1417-Provincia-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7930</v>
+        <v>7933</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.00589844137613864</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02904818858080919</v>
+        <v>0.02905681590195803</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5469</v>
+        <v>5442</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.004114433133073653</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02096866774123373</v>
+        <v>0.02086316156777285</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9129</v>
+        <v>10552</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.005026775138572661</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01710016182630872</v>
+        <v>0.01976624897405999</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>271400</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>265080</v>
+        <v>265077</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>273010</v>
@@ -824,7 +824,7 @@
         <v>0.9941015586238614</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9709518114191905</v>
+        <v>0.9709431840980423</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -836,7 +836,7 @@
         <v>259765</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>255369</v>
+        <v>255396</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>260838</v>
@@ -845,7 +845,7 @@
         <v>0.9958855668669263</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9790313322587663</v>
+        <v>0.9791368384322271</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>531164</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>524719</v>
+        <v>523296</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>533848</v>
@@ -866,7 +866,7 @@
         <v>0.9949732248614274</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9828998381736913</v>
+        <v>0.9802337510259406</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9348</v>
+        <v>8337</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.003551434400115613</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0189581253290085</v>
+        <v>0.01690830686799333</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -982,19 +982,19 @@
         <v>10911</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5830</v>
+        <v>5785</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19119</v>
+        <v>19345</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02165073602390597</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01156933142517547</v>
+        <v>0.01147848253790069</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03793800225956218</v>
+        <v>0.03838739306124094</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>12</v>
@@ -1003,19 +1003,19 @@
         <v>12662</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6303</v>
+        <v>6953</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>21792</v>
+        <v>22550</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01269978437767093</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.006322086980735683</v>
+        <v>0.006973517325416971</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02185707698467982</v>
+        <v>0.02261733119613803</v>
       </c>
     </row>
     <row r="8">
@@ -1032,7 +1032,7 @@
         <v>491324</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>483727</v>
+        <v>484738</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>493075</v>
@@ -1041,7 +1041,7 @@
         <v>0.9964485655998844</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9810418746709905</v>
+        <v>0.9830916931320061</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1053,19 +1053,19 @@
         <v>493038</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>484830</v>
+        <v>484604</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>498119</v>
+        <v>498164</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.978349263976094</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9620619977404379</v>
+        <v>0.9616126069387593</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9884306685748245</v>
+        <v>0.9885215174620994</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>952</v>
@@ -1074,19 +1074,19 @@
         <v>984362</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>975232</v>
+        <v>974474</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>990721</v>
+        <v>990071</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9873002156223291</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9781429230153202</v>
+        <v>0.977382668803862</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9936779130192643</v>
+        <v>0.993026482674583</v>
       </c>
     </row>
     <row r="9">
@@ -1191,19 +1191,19 @@
         <v>2911</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7860</v>
+        <v>7881</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.008677682571327826</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002718069025753321</v>
+        <v>0.002711291759352453</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02343411405036163</v>
+        <v>0.02349791110285287</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -1212,19 +1212,19 @@
         <v>2911</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>8656</v>
+        <v>8307</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.004448702604144638</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001394558933895291</v>
+        <v>0.001396892070823831</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01323015425641291</v>
+        <v>0.01269610098638371</v>
       </c>
     </row>
     <row r="11">
@@ -1254,19 +1254,19 @@
         <v>332501</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>327552</v>
+        <v>327531</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>334500</v>
+        <v>334503</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9913223174286722</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9765658859496387</v>
+        <v>0.9765020888971471</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9972819309742467</v>
+        <v>0.9972887082406475</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>642</v>
@@ -1275,19 +1275,19 @@
         <v>651347</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>645602</v>
+        <v>645951</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>653346</v>
+        <v>653344</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9955512973958554</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9867698457435872</v>
+        <v>0.9873038990136163</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9986054410661047</v>
+        <v>0.9986031079291762</v>
       </c>
     </row>
     <row r="12">
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5482</v>
+        <v>5373</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.002633190074983846</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01528557906455617</v>
+        <v>0.01498041763364765</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -1400,19 +1400,19 @@
         <v>4565</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1672</v>
+        <v>1537</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9788</v>
+        <v>9986</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01228847521667717</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.004500365006826677</v>
+        <v>0.004136772496316583</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02635109237703607</v>
+        <v>0.02688413057994588</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6</v>
@@ -1421,19 +1421,19 @@
         <v>5509</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1911</v>
+        <v>1894</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>11971</v>
+        <v>11932</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.007545366835450699</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.002616905353253828</v>
+        <v>0.002594606075642107</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01639519542580582</v>
+        <v>0.01634257157482577</v>
       </c>
     </row>
     <row r="14">
@@ -1450,7 +1450,7 @@
         <v>357727</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>353189</v>
+        <v>353298</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>358671</v>
@@ -1459,7 +1459,7 @@
         <v>0.9973668099250161</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9847144209354446</v>
+        <v>0.9850195823663527</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1471,19 +1471,19 @@
         <v>366891</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>361668</v>
+        <v>361470</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>369784</v>
+        <v>369919</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9877115247833228</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9736489076229634</v>
+        <v>0.9731158694200542</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9954996349931718</v>
+        <v>0.9958632275036834</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>740</v>
@@ -1492,19 +1492,19 @@
         <v>724618</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>718156</v>
+        <v>718195</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>728216</v>
+        <v>728233</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9924546331645493</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9836048045741942</v>
+        <v>0.9836574284251742</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9973830946467461</v>
+        <v>0.9974053939243579</v>
       </c>
     </row>
     <row r="15">
@@ -1599,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4486</v>
+        <v>4874</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.003981682152493913</v>
@@ -1608,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02206622021104757</v>
+        <v>0.02397308997104144</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -1617,19 +1617,19 @@
         <v>6369</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2110</v>
+        <v>2332</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12230</v>
+        <v>13427</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03066868822394011</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01015997388016514</v>
+        <v>0.0112305649915134</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05889034065160685</v>
+        <v>0.06465440228606406</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -1638,19 +1638,19 @@
         <v>7178</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2972</v>
+        <v>2984</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>14743</v>
+        <v>15421</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01746674346157707</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.007231299302067408</v>
+        <v>0.007261148046794502</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03587415414350588</v>
+        <v>0.03752255273253403</v>
       </c>
     </row>
     <row r="17">
@@ -1667,7 +1667,7 @@
         <v>202498</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>198822</v>
+        <v>198434</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>203308</v>
@@ -1676,7 +1676,7 @@
         <v>0.9960183178475061</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9779337797889519</v>
+        <v>0.9760269100289586</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -1688,19 +1688,19 @@
         <v>201299</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>195438</v>
+        <v>194241</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>205558</v>
+        <v>205336</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9693313117760599</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9411096593483934</v>
+        <v>0.9353455977139357</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9898400261198349</v>
+        <v>0.9887694350084865</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>397</v>
@@ -1709,19 +1709,19 @@
         <v>403798</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>396233</v>
+        <v>395555</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>408004</v>
+        <v>407992</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9825332565384229</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9641258458564943</v>
+        <v>0.9624774472674664</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9927687006979327</v>
+        <v>0.9927388519532055</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>3070</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8819</v>
+        <v>8186</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01103766460405055</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.003648449946130165</v>
+        <v>0.003641628796657767</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03170573466005135</v>
+        <v>0.02943013973134617</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3</v>
@@ -1847,19 +1847,19 @@
         <v>3070</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>8154</v>
+        <v>9170</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.005592553417443462</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.001847969955917699</v>
+        <v>0.001843148391273536</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01485279289576108</v>
+        <v>0.01670427835146909</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>275074</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>269325</v>
+        <v>269958</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>277129</v>
+        <v>277131</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9889623353959495</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9682942653399468</v>
+        <v>0.9705698602686538</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9963515500538699</v>
+        <v>0.9963583712033421</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>533</v>
@@ -1910,19 +1910,19 @@
         <v>545885</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>540801</v>
+        <v>539785</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>547941</v>
+        <v>547943</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9944074465825565</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9851472071042391</v>
+        <v>0.9832957216485311</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9981520300440823</v>
+        <v>0.9981568516087265</v>
       </c>
     </row>
     <row r="21">
@@ -2014,19 +2014,19 @@
         <v>3596</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>942</v>
+        <v>930</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>10466</v>
+        <v>8710</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.005847682776274339</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.001531534703877851</v>
+        <v>0.001512776023141757</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01701732288799058</v>
+        <v>0.01416139567663062</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>14</v>
@@ -2035,19 +2035,19 @@
         <v>15887</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8841</v>
+        <v>9043</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>26869</v>
+        <v>26362</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02489197657740124</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01385327425121903</v>
+        <v>0.01416949330308038</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04210053926111131</v>
+        <v>0.04130613599244232</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>18</v>
@@ -2056,19 +2056,19 @@
         <v>19483</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>12019</v>
+        <v>12310</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>29457</v>
+        <v>30996</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0155460424487384</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.009590167360481643</v>
+        <v>0.00982255200274351</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02350441721732308</v>
+        <v>0.02473234289152096</v>
       </c>
     </row>
     <row r="23">
@@ -2085,19 +2085,19 @@
         <v>611431</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>604561</v>
+        <v>606317</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>614085</v>
+        <v>614097</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9941523172237257</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9829826771120096</v>
+        <v>0.9858386043233691</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9984684652961222</v>
+        <v>0.9984872239768583</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>607</v>
@@ -2106,19 +2106,19 @@
         <v>622332</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>611350</v>
+        <v>611857</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>629378</v>
+        <v>629176</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9751080234225987</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9578994607388889</v>
+        <v>0.9586938640075578</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9861467257487809</v>
+        <v>0.9858305066969196</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1201</v>
@@ -2127,19 +2127,19 @@
         <v>1233763</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1223789</v>
+        <v>1222250</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1241227</v>
+        <v>1240936</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9844539575512616</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9764955827826768</v>
+        <v>0.975267657108479</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9904098326395183</v>
+        <v>0.9901774479972565</v>
       </c>
     </row>
     <row r="24">
@@ -2231,19 +2231,19 @@
         <v>4769</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1827</v>
+        <v>1795</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>10912</v>
+        <v>10449</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.00641185372506278</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.002456741672828003</v>
+        <v>0.002413819720372442</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01467118287422647</v>
+        <v>0.01404763403292337</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>12</v>
@@ -2252,19 +2252,19 @@
         <v>12888</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>6229</v>
+        <v>6878</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>21722</v>
+        <v>21450</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01644920875980987</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.007949939199198468</v>
+        <v>0.008778749639194542</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02772348408064394</v>
+        <v>0.02737617697892922</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>17</v>
@@ -2273,19 +2273,19 @@
         <v>17657</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>10377</v>
+        <v>10273</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>28201</v>
+        <v>27854</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01156103657715469</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.006794559460885258</v>
+        <v>0.006726254567177998</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01846485024868469</v>
+        <v>0.01823760731327168</v>
       </c>
     </row>
     <row r="26">
@@ -2302,19 +2302,19 @@
         <v>739026</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>732883</v>
+        <v>733346</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>741968</v>
+        <v>742000</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9935881462749372</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9853288171257736</v>
+        <v>0.9859523659670765</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9975432583271721</v>
+        <v>0.9975861802796275</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>733</v>
@@ -2323,19 +2323,19 @@
         <v>770623</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>761789</v>
+        <v>762061</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>777282</v>
+        <v>776633</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9835507912401902</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9722765159193562</v>
+        <v>0.9726238230210708</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9920500608008017</v>
+        <v>0.9912212503608054</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1464</v>
@@ -2344,19 +2344,19 @@
         <v>1509649</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1499105</v>
+        <v>1499452</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1516929</v>
+        <v>1517033</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9884389634228453</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9815351497513152</v>
+        <v>0.9817623926867283</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9932054405391143</v>
+        <v>0.993273745432822</v>
       </c>
     </row>
     <row r="27">
@@ -2448,19 +2448,19 @@
         <v>13481</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>7432</v>
+        <v>7665</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>23119</v>
+        <v>23028</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.004114397798215904</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.002268351721529086</v>
+        <v>0.002339409471686419</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.007055784477338089</v>
+        <v>0.007028167501558786</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>55</v>
@@ -2469,19 +2469,19 @@
         <v>57673</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>44062</v>
+        <v>44840</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>74506</v>
+        <v>74635</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01706705025658779</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01303919915510766</v>
+        <v>0.01326929291945971</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02204848391161074</v>
+        <v>0.02208654957310167</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>68</v>
@@ -2490,19 +2490,19 @@
         <v>71154</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>54557</v>
+        <v>54281</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>89843</v>
+        <v>88905</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01069061083892849</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.008196931786894681</v>
+        <v>0.008155503519834689</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01349864006524869</v>
+        <v>0.0133577148242824</v>
       </c>
     </row>
     <row r="29">
@@ -2519,19 +2519,19 @@
         <v>3263062</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3253424</v>
+        <v>3253515</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3269111</v>
+        <v>3268878</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9958856022017841</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9929442155226622</v>
+        <v>0.9929718324984416</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9977316482784709</v>
+        <v>0.9976605905283137</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3242</v>
@@ -2540,19 +2540,19 @@
         <v>3321524</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3304691</v>
+        <v>3304562</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3335135</v>
+        <v>3334357</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9829329497434122</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9779515160883894</v>
+        <v>0.9779134504268989</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9869608008448926</v>
+        <v>0.9867307070805407</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6443</v>
@@ -2561,19 +2561,19 @@
         <v>6584587</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6565898</v>
+        <v>6566836</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6601184</v>
+        <v>6601460</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9893093891610715</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9865013599347514</v>
+        <v>0.9866422851757177</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9918030682131054</v>
+        <v>0.9918444964801655</v>
       </c>
     </row>
     <row r="30">
@@ -2912,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6970</v>
+        <v>5987</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006650015442449182</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02364966376968178</v>
+        <v>0.02031355405823205</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -2930,19 +2930,19 @@
         <v>9564</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4335</v>
+        <v>5144</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16907</v>
+        <v>17984</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03329687923122365</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01509008947970803</v>
+        <v>0.01790887991438212</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05886028234583161</v>
+        <v>0.06260953843235209</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -2951,19 +2951,19 @@
         <v>11524</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6018</v>
+        <v>6125</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>20873</v>
+        <v>20765</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01980190817522446</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01034119710763583</v>
+        <v>0.01052451114566412</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03586590926771685</v>
+        <v>0.0356794143750172</v>
       </c>
     </row>
     <row r="5">
@@ -2980,7 +2980,7 @@
         <v>292778</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>287768</v>
+        <v>288751</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>294738</v>
@@ -2989,7 +2989,7 @@
         <v>0.9933499845575509</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9763503362303183</v>
+        <v>0.9796864459417679</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -3001,19 +3001,19 @@
         <v>277681</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>270338</v>
+        <v>269261</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>282910</v>
+        <v>282101</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9667031207687764</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9411397176541684</v>
+        <v>0.937390461567648</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.984909910520292</v>
+        <v>0.9820911200856179</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>527</v>
@@ -3022,19 +3022,19 @@
         <v>570459</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>561110</v>
+        <v>561218</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>575965</v>
+        <v>575858</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9801980918247756</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9641340907322832</v>
+        <v>0.9643205856249829</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9896588028923642</v>
+        <v>0.9894754888543359</v>
       </c>
     </row>
     <row r="6">
@@ -3139,19 +3139,19 @@
         <v>10342</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5194</v>
+        <v>5123</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>18894</v>
+        <v>18328</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01974489587237089</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.009916917042387422</v>
+        <v>0.009781221455983539</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0360732170771623</v>
+        <v>0.03499209126867885</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>10</v>
@@ -3160,19 +3160,19 @@
         <v>10342</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5136</v>
+        <v>5338</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>18444</v>
+        <v>18687</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01004737513492656</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004989390488632115</v>
+        <v>0.005186523190449619</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01791891387118985</v>
+        <v>0.01815516011593524</v>
       </c>
     </row>
     <row r="8">
@@ -3202,19 +3202,19 @@
         <v>513423</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>504871</v>
+        <v>505437</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>518571</v>
+        <v>518642</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9802551041276291</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9639267829228377</v>
+        <v>0.9650079087313206</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9900830829576126</v>
+        <v>0.9902187785440164</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>942</v>
@@ -3223,19 +3223,19 @@
         <v>1018950</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1010848</v>
+        <v>1010605</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1024156</v>
+        <v>1023954</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9899526248650734</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9820810861288102</v>
+        <v>0.9818448398840646</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9950106095113679</v>
+        <v>0.9948134768095502</v>
       </c>
     </row>
     <row r="9">
@@ -3330,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6967</v>
+        <v>6955</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006171868403909418</v>
@@ -3339,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02150138685284273</v>
+        <v>0.02146203602259463</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -3348,19 +3348,19 @@
         <v>6280</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2124</v>
+        <v>2117</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13489</v>
+        <v>12701</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01841641412279209</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006229250722535442</v>
+        <v>0.006208447925633103</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03955605697322098</v>
+        <v>0.03724272118724542</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -3369,19 +3369,19 @@
         <v>8280</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4041</v>
+        <v>3265</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>15741</v>
+        <v>15515</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01245039568518464</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006076542812168708</v>
+        <v>0.004908711354781341</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02366878066324544</v>
+        <v>0.02332788127659987</v>
       </c>
     </row>
     <row r="11">
@@ -3398,7 +3398,7 @@
         <v>322046</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>317079</v>
+        <v>317091</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>324046</v>
@@ -3407,7 +3407,7 @@
         <v>0.9938281315960906</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9784986131471572</v>
+        <v>0.9785379639774053</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -3419,19 +3419,19 @@
         <v>334740</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>327531</v>
+        <v>328319</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>338896</v>
+        <v>338903</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.981583585877208</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9604439430267789</v>
+        <v>0.9627572788127545</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9937707492774646</v>
+        <v>0.9937915520743669</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>628</v>
@@ -3440,19 +3440,19 @@
         <v>656786</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>649325</v>
+        <v>649551</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>661025</v>
+        <v>661801</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9875496043148153</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9763312193367547</v>
+        <v>0.9766721187234001</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9939234571878315</v>
+        <v>0.9950912886452189</v>
       </c>
     </row>
     <row r="12">
@@ -3557,19 +3557,19 @@
         <v>15865</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9353</v>
+        <v>8988</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>25652</v>
+        <v>25300</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04078846067921743</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02404776454339522</v>
+        <v>0.02310773679508358</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06595279309088328</v>
+        <v>0.06504728646035483</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>15</v>
@@ -3578,19 +3578,19 @@
         <v>15865</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>9147</v>
+        <v>9043</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>25824</v>
+        <v>25982</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02079436870288719</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01198942165213491</v>
+        <v>0.01185313260681668</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03384874034059399</v>
+        <v>0.03405585043068718</v>
       </c>
     </row>
     <row r="14">
@@ -3620,19 +3620,19 @@
         <v>373086</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>363299</v>
+        <v>363651</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>379598</v>
+        <v>379963</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9592115393207826</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9340472069091165</v>
+        <v>0.9349527135396448</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9759522354566047</v>
+        <v>0.9768922632049164</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>700</v>
@@ -3641,19 +3641,19 @@
         <v>747068</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>737109</v>
+        <v>736951</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>753786</v>
+        <v>753890</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9792056312971128</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9661512596594056</v>
+        <v>0.9659441495693116</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9880105783478651</v>
+        <v>0.9881468673931832</v>
       </c>
     </row>
     <row r="15">
@@ -3745,19 +3745,19 @@
         <v>3120</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8469</v>
+        <v>8624</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01467242967790379</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004626535473421711</v>
+        <v>0.00459353416163224</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03983059121041133</v>
+        <v>0.04056149388943125</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -3766,19 +3766,19 @@
         <v>11963</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5961</v>
+        <v>5787</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>20810</v>
+        <v>21434</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05448016654312828</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02714564065273075</v>
+        <v>0.02635129263568896</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09476485375291738</v>
+        <v>0.09760798278492529</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -3787,19 +3787,19 @@
         <v>15083</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8180</v>
+        <v>7870</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>25370</v>
+        <v>24067</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03489741330804595</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01892619400796687</v>
+        <v>0.01820921235912595</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05869884384413708</v>
+        <v>0.05568270448475935</v>
       </c>
     </row>
     <row r="17">
@@ -3816,19 +3816,19 @@
         <v>209498</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>204149</v>
+        <v>203994</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>211634</v>
+        <v>211641</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9853275703220962</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9601694087895888</v>
+        <v>0.9594385061105688</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9953734645265783</v>
+        <v>0.9954064658383678</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>201</v>
@@ -3837,19 +3837,19 @@
         <v>207628</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>198781</v>
+        <v>198157</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>213630</v>
+        <v>213804</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9455198334568717</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9052351462470825</v>
+        <v>0.9023920172150747</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9728543593472693</v>
+        <v>0.973648707364311</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>394</v>
@@ -3858,19 +3858,19 @@
         <v>417126</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>406839</v>
+        <v>408142</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>424029</v>
+        <v>424339</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.965102586691954</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9413011561558627</v>
+        <v>0.9443172955152408</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9810738059920331</v>
+        <v>0.9817907876408741</v>
       </c>
     </row>
     <row r="18">
@@ -3965,7 +3965,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6051</v>
+        <v>6925</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.007233493495895211</v>
@@ -3974,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02208404480871085</v>
+        <v>0.02527556946131971</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -3983,19 +3983,19 @@
         <v>4898</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1942</v>
+        <v>1938</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>11837</v>
+        <v>11586</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01761157781364922</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.006983595820905598</v>
+        <v>0.006970451841767175</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04256325553708501</v>
+        <v>0.04166115062256195</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>7</v>
@@ -4004,19 +4004,19 @@
         <v>6880</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2965</v>
+        <v>2920</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>13647</v>
+        <v>13745</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01246121069144569</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.005370961081809267</v>
+        <v>0.005288398201541863</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02471929210991979</v>
+        <v>0.02489693119859228</v>
       </c>
     </row>
     <row r="20">
@@ -4033,7 +4033,7 @@
         <v>271999</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>267930</v>
+        <v>267056</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>273981</v>
@@ -4042,7 +4042,7 @@
         <v>0.9927665065041048</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.977915955191289</v>
+        <v>0.9747244305386803</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -4054,19 +4054,19 @@
         <v>273198</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>266259</v>
+        <v>266510</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>276154</v>
+        <v>276158</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9823884221863508</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.957436744462915</v>
+        <v>0.9583388493774381</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9930164041790944</v>
+        <v>0.9930295481582329</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>522</v>
@@ -4075,19 +4075,19 @@
         <v>545197</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>538430</v>
+        <v>538332</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>549112</v>
+        <v>549157</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9875387893085543</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9752807078900814</v>
+        <v>0.9751030688014071</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9946290389181908</v>
+        <v>0.9947116017984581</v>
       </c>
     </row>
     <row r="21">
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6938</v>
+        <v>6076</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.003014696762483859</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01046814719462053</v>
+        <v>0.009166961722973321</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>18</v>
@@ -4200,19 +4200,19 @@
         <v>20519</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12452</v>
+        <v>12255</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>32427</v>
+        <v>31823</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.029573180034439</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01794668911690966</v>
+        <v>0.01766281399598799</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04673512126150385</v>
+        <v>0.04586459836663949</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>20</v>
@@ -4221,19 +4221,19 @@
         <v>22518</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>13711</v>
+        <v>13701</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>33456</v>
+        <v>34438</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01659801200997997</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01010641888992776</v>
+        <v>0.01009890280902028</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02466097141213468</v>
+        <v>0.02538445480625629</v>
       </c>
     </row>
     <row r="23">
@@ -4250,7 +4250,7 @@
         <v>660790</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>655850</v>
+        <v>656712</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>662788</v>
@@ -4259,7 +4259,7 @@
         <v>0.9969853032375161</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9895318528053795</v>
+        <v>0.9908330382770266</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -4271,19 +4271,19 @@
         <v>673334</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>661426</v>
+        <v>662030</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>681401</v>
+        <v>681598</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.970426819965561</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9532648787384952</v>
+        <v>0.9541354016333605</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9820533108830902</v>
+        <v>0.9823371860040121</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1234</v>
@@ -4292,19 +4292,19 @@
         <v>1334123</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1323185</v>
+        <v>1322203</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1342930</v>
+        <v>1342940</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.98340198799002</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.975339028587865</v>
+        <v>0.9746155451937432</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9898935811100721</v>
+        <v>0.9899010971909796</v>
       </c>
     </row>
     <row r="24">
@@ -4396,19 +4396,19 @@
         <v>4265</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>10318</v>
+        <v>10096</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.005474127045713247</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.001357526478029332</v>
+        <v>0.001354546481820041</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01324409973554724</v>
+        <v>0.01295871325544361</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>16</v>
@@ -4417,19 +4417,19 @@
         <v>17128</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>9875</v>
+        <v>10105</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>25992</v>
+        <v>26812</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02084857344297371</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01202015683482561</v>
+        <v>0.01230029385589957</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03163888063761267</v>
+        <v>0.03263688699110321</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>20</v>
@@ -4438,19 +4438,19 @@
         <v>21393</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>13754</v>
+        <v>13064</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>32012</v>
+        <v>32500</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01336513927486215</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.008593099130813967</v>
+        <v>0.008162092634565384</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01999969047949638</v>
+        <v>0.0203043826771382</v>
       </c>
     </row>
     <row r="26">
@@ -4467,19 +4467,19 @@
         <v>774833</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>768780</v>
+        <v>769002</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>778040</v>
+        <v>778043</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9945258729542867</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9867559002644524</v>
+        <v>0.9870412867445558</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9986424735219707</v>
+        <v>0.9986454535181799</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>739</v>
@@ -4488,19 +4488,19 @@
         <v>804403</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>795539</v>
+        <v>794719</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>811656</v>
+        <v>811426</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9791514265570262</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9683611193623873</v>
+        <v>0.9673631130088968</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9879798431651745</v>
+        <v>0.9876997061441007</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1452</v>
@@ -4509,19 +4509,19 @@
         <v>1579236</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1568617</v>
+        <v>1568129</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1586875</v>
+        <v>1587565</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9866348607251378</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9800003095205037</v>
+        <v>0.979695617322862</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.991406900869186</v>
+        <v>0.9918379073654346</v>
       </c>
     </row>
     <row r="27">
@@ -4613,19 +4613,19 @@
         <v>15324</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>9156</v>
+        <v>9094</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>25517</v>
+        <v>24143</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0044719643820691</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.002672004141995643</v>
+        <v>0.002653860685908679</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.007446310442123063</v>
+        <v>0.007045456988643975</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>90</v>
@@ -4634,19 +4634,19 @@
         <v>96559</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>79296</v>
+        <v>78437</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>118467</v>
+        <v>119064</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02716881458012581</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0223115472155917</v>
+        <v>0.02206987616510577</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03333290930711814</v>
+        <v>0.03350094007446795</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>105</v>
@@ -4655,19 +4655,19 @@
         <v>111884</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>92282</v>
+        <v>92732</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>136281</v>
+        <v>134868</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01602729165886525</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01321933288778764</v>
+        <v>0.01328377755450758</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01952213042737943</v>
+        <v>0.01931972429695555</v>
       </c>
     </row>
     <row r="29">
@@ -4684,19 +4684,19 @@
         <v>3411455</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3401262</v>
+        <v>3402636</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3417623</v>
+        <v>3417685</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9955280356179309</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9925536895578769</v>
+        <v>0.992954543011356</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9973279958580044</v>
+        <v>0.9973461393140913</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3205</v>
@@ -4705,19 +4705,19 @@
         <v>3457493</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3435585</v>
+        <v>3434988</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3474756</v>
+        <v>3475615</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9728311854198742</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9666670906928817</v>
+        <v>0.966499059925532</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9776884527844083</v>
+        <v>0.9779301238348941</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6399</v>
@@ -4726,19 +4726,19 @@
         <v>6868947</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6844550</v>
+        <v>6845963</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6888549</v>
+        <v>6888099</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9839727083411347</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9804778695726206</v>
+        <v>0.9806802757030444</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9867806671122122</v>
+        <v>0.9867162224454924</v>
       </c>
     </row>
     <row r="30">
@@ -5077,7 +5077,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8613</v>
+        <v>8636</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009130023355342095</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02932090374487832</v>
+        <v>0.02939753529935289</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -5095,19 +5095,19 @@
         <v>8091</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3174</v>
+        <v>3860</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16199</v>
+        <v>16572</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0280250060453563</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01099348866605823</v>
+        <v>0.01337149888578222</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05610900655150009</v>
+        <v>0.05740141156540156</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -5116,19 +5116,19 @@
         <v>10773</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5564</v>
+        <v>5348</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>20776</v>
+        <v>20915</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01849547457363064</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009552938722731965</v>
+        <v>0.009181292100115201</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0356695911141035</v>
+        <v>0.03590788232727234</v>
       </c>
     </row>
     <row r="5">
@@ -5145,7 +5145,7 @@
         <v>291079</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>285148</v>
+        <v>285125</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>293761</v>
@@ -5154,7 +5154,7 @@
         <v>0.9908699766446579</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9706790962551217</v>
+        <v>0.970602464700647</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -5166,19 +5166,19 @@
         <v>280612</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>272504</v>
+        <v>272131</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>285529</v>
+        <v>284843</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9719749939546437</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9438909934484998</v>
+        <v>0.9425985884345984</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9890065113339418</v>
+        <v>0.9866285011142178</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>534</v>
@@ -5187,19 +5187,19 @@
         <v>571691</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>561688</v>
+        <v>561549</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>576900</v>
+        <v>577116</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9815045254263693</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9643304088858964</v>
+        <v>0.9640921176727274</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.990447061277268</v>
+        <v>0.9908187078998848</v>
       </c>
     </row>
     <row r="6">
@@ -5300,10 +5300,10 @@
         <v>0.008252334985174789</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002074952603313909</v>
+        <v>0.002074636101887391</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02058506689157874</v>
+        <v>0.02058500733933336</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -5312,19 +5312,19 @@
         <v>4306</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1221</v>
+        <v>1008</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10024</v>
+        <v>10044</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.008232164849777856</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002334588129561668</v>
+        <v>0.001926786858053869</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01916389479786233</v>
+        <v>0.01920080425134054</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -5333,19 +5333,19 @@
         <v>8454</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4152</v>
+        <v>4165</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>16807</v>
+        <v>16786</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008242048260849351</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004048349187024846</v>
+        <v>0.004060952212129875</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01638611185182869</v>
+        <v>0.01636614426423233</v>
       </c>
     </row>
     <row r="8">
@@ -5371,10 +5371,10 @@
         <v>0.9917476650148253</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9794149331084213</v>
+        <v>0.9794149926606666</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9979250473966861</v>
+        <v>0.9979253638981126</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>480</v>
@@ -5383,19 +5383,19 @@
         <v>518778</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>513060</v>
+        <v>513040</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>521863</v>
+        <v>522076</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9917678351502222</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9808361052021374</v>
+        <v>0.9807991957486591</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9976654118704382</v>
+        <v>0.9980732131419461</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>951</v>
@@ -5404,19 +5404,19 @@
         <v>1017205</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1008852</v>
+        <v>1008873</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1021507</v>
+        <v>1021494</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9917579517391506</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9836138881481714</v>
+        <v>0.9836338557357677</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9959516508129752</v>
+        <v>0.9959390477878701</v>
       </c>
     </row>
     <row r="9">
@@ -5511,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3938</v>
+        <v>4191</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002456481854085952</v>
@@ -5520,7 +5520,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01236198537764612</v>
+        <v>0.01315452397233668</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -5529,19 +5529,19 @@
         <v>6676</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2702</v>
+        <v>2759</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12663</v>
+        <v>13402</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01985040554725067</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008034186122069301</v>
+        <v>0.008203132059099614</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03765237076429889</v>
+        <v>0.03984947786216268</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -5550,19 +5550,19 @@
         <v>7458</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3347</v>
+        <v>3508</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>13737</v>
+        <v>13967</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01138909044998569</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005111211273994659</v>
+        <v>0.005356091036793955</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02097664934103957</v>
+        <v>0.02132703082507762</v>
       </c>
     </row>
     <row r="11">
@@ -5579,7 +5579,7 @@
         <v>317782</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>314627</v>
+        <v>314374</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>318565</v>
@@ -5588,7 +5588,7 @@
         <v>0.997543518145914</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9876380146223539</v>
+        <v>0.9868454760276623</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -5600,19 +5600,19 @@
         <v>329633</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>323646</v>
+        <v>322907</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>333607</v>
+        <v>333550</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9801495944527493</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9623476292357012</v>
+        <v>0.9601505221378374</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9919658138779307</v>
+        <v>0.9917968679409004</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>659</v>
@@ -5621,19 +5621,19 @@
         <v>647416</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>641137</v>
+        <v>640907</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>651527</v>
+        <v>651366</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9886109095500143</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9790233506589602</v>
+        <v>0.9786729691749222</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9948887887260052</v>
+        <v>0.994643908963206</v>
       </c>
     </row>
     <row r="12">
@@ -5725,19 +5725,19 @@
         <v>3952</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>984</v>
+        <v>1025</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9153</v>
+        <v>9705</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01068106952935564</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002659273268434562</v>
+        <v>0.002770700190204126</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02474013961654608</v>
+        <v>0.02623127315673711</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>14</v>
@@ -5746,19 +5746,19 @@
         <v>14772</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8203</v>
+        <v>8730</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>23897</v>
+        <v>23680</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0381429523794182</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02118040236076376</v>
+        <v>0.02254039644593149</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06170362810949841</v>
+        <v>0.06114367435989802</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>18</v>
@@ -5767,19 +5767,19 @@
         <v>18724</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>11672</v>
+        <v>11200</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>29576</v>
+        <v>28724</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02472605143453066</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01541385124970297</v>
+        <v>0.01479047874899014</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03905716867580352</v>
+        <v>0.0379323102179338</v>
       </c>
     </row>
     <row r="14">
@@ -5796,19 +5796,19 @@
         <v>366012</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>360811</v>
+        <v>360259</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>368980</v>
+        <v>368939</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9893189304706443</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9752598603834539</v>
+        <v>0.9737687268432629</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9973407267315655</v>
+        <v>0.9972292998097959</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>344</v>
@@ -5817,19 +5817,19 @@
         <v>372511</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>363386</v>
+        <v>363603</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>379080</v>
+        <v>378553</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9618570476205818</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9382963718905016</v>
+        <v>0.9388563256401019</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9788195976392362</v>
+        <v>0.9774596035540685</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>694</v>
@@ -5838,19 +5838,19 @@
         <v>738523</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>727671</v>
+        <v>728523</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>745575</v>
+        <v>746047</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9752739485654693</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9609428313241963</v>
+        <v>0.9620676897820661</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9845861487502967</v>
+        <v>0.9852095212510098</v>
       </c>
     </row>
     <row r="15">
@@ -5945,7 +5945,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4664</v>
+        <v>5329</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.00461287988122008</v>
@@ -5954,7 +5954,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02208199521332718</v>
+        <v>0.02522839101036131</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -5963,19 +5963,19 @@
         <v>6141</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2139</v>
+        <v>2155</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13618</v>
+        <v>12489</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02809608057328829</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009784481642667472</v>
+        <v>0.009856529126296427</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06230238066120452</v>
+        <v>0.05713444693399858</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -5984,19 +5984,19 @@
         <v>7116</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2947</v>
+        <v>3008</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>14026</v>
+        <v>15068</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01655570647000451</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006857529712015773</v>
+        <v>0.006998384224168714</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03263350548142688</v>
+        <v>0.03505768163572286</v>
       </c>
     </row>
     <row r="17">
@@ -6013,7 +6013,7 @@
         <v>210247</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>206557</v>
+        <v>205892</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>211221</v>
@@ -6022,7 +6022,7 @@
         <v>0.9953871201187799</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9779180047866731</v>
+        <v>0.974771608989638</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -6034,19 +6034,19 @@
         <v>212446</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>204969</v>
+        <v>206098</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>216448</v>
+        <v>216432</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9719039194267117</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9376976193387955</v>
+        <v>0.9428655530660014</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9902155183573326</v>
+        <v>0.9901434708737036</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>428</v>
@@ -6055,19 +6055,19 @@
         <v>422692</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>415782</v>
+        <v>414740</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>426861</v>
+        <v>426800</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9834442935299955</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9673664945185732</v>
+        <v>0.9649423183642782</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9931424702879843</v>
+        <v>0.9930016157758312</v>
       </c>
     </row>
     <row r="18">
@@ -6159,19 +6159,19 @@
         <v>2841</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7598</v>
+        <v>8675</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0107968912593819</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.00298701855478679</v>
+        <v>0.002977035909337223</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02887441323479671</v>
+        <v>0.03296805276479955</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -6180,19 +6180,19 @@
         <v>4468</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1195</v>
+        <v>1168</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>10422</v>
+        <v>11496</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01636027996262499</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.004376122378759939</v>
+        <v>0.00427542921998977</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03815804231253963</v>
+        <v>0.04209104579424267</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>7</v>
@@ -6201,19 +6201,19 @@
         <v>7309</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3232</v>
+        <v>3123</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>14480</v>
+        <v>14456</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01363041836711345</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.006027140208855699</v>
+        <v>0.005824536552540106</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0270022630546733</v>
+        <v>0.02695816382035343</v>
       </c>
     </row>
     <row r="20">
@@ -6230,19 +6230,19 @@
         <v>260282</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>255525</v>
+        <v>254448</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>262337</v>
+        <v>262340</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9892031087406181</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.971125586765204</v>
+        <v>0.9670319472352003</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9970129814452132</v>
+        <v>0.9970229640906627</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>259</v>
@@ -6251,19 +6251,19 @@
         <v>268647</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>262693</v>
+        <v>261619</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>271920</v>
+        <v>271947</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.983639720037375</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9618419576874599</v>
+        <v>0.9579089542057573</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.99562387762124</v>
+        <v>0.9957245707800102</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>515</v>
@@ -6272,19 +6272,19 @@
         <v>528929</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>521758</v>
+        <v>521782</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>533006</v>
+        <v>533115</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9863695816328866</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9729977369453269</v>
+        <v>0.9730418361796471</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9939728597911444</v>
+        <v>0.9941754634474604</v>
       </c>
     </row>
     <row r="21">
@@ -6376,19 +6376,19 @@
         <v>2694</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8100</v>
+        <v>7217</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.004103847474122085</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.001349831075120993</v>
+        <v>0.001342529493939489</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01233643624382184</v>
+        <v>0.01099201629328119</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>20</v>
@@ -6397,19 +6397,19 @@
         <v>21172</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>13113</v>
+        <v>12437</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>32130</v>
+        <v>31209</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03062626619525927</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01896930206100252</v>
+        <v>0.01799032414498885</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04647835970132073</v>
+        <v>0.04514613692574516</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>23</v>
@@ -6418,19 +6418,19 @@
         <v>23866</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>14864</v>
+        <v>15840</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>34382</v>
+        <v>35582</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01770681647466537</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01102821306896401</v>
+        <v>0.01175190557196544</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02550907443303201</v>
+        <v>0.02639938045994446</v>
       </c>
     </row>
     <row r="23">
@@ -6447,19 +6447,19 @@
         <v>653864</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>648458</v>
+        <v>649341</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>655672</v>
+        <v>655677</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9958961525258779</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9876635637561781</v>
+        <v>0.9890079837067188</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.998650168924879</v>
+        <v>0.9986574705060606</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>626</v>
@@ -6468,19 +6468,19 @@
         <v>670122</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>659164</v>
+        <v>660085</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>678181</v>
+        <v>678857</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9693737338047407</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9535216402986796</v>
+        <v>0.9548538630742548</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9810306979389984</v>
+        <v>0.9820096758550116</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1203</v>
@@ -6489,19 +6489,19 @@
         <v>1323986</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1313470</v>
+        <v>1312270</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1332988</v>
+        <v>1332012</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9822931835253347</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9744909255669676</v>
+        <v>0.9736006195400552</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9889717869310359</v>
+        <v>0.9882480944280345</v>
       </c>
     </row>
     <row r="24">
@@ -6596,7 +6596,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5687</v>
+        <v>5166</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.001313440178152658</v>
@@ -6605,7 +6605,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.007304734558678624</v>
+        <v>0.006635479810727252</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>19</v>
@@ -6614,19 +6614,19 @@
         <v>21248</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>12537</v>
+        <v>13589</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>32958</v>
+        <v>33366</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02571840473806481</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01517529172666919</v>
+        <v>0.01644769068780345</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03989237718061207</v>
+        <v>0.04038676587582701</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>20</v>
@@ -6635,19 +6635,19 @@
         <v>22270</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>14310</v>
+        <v>13866</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>33703</v>
+        <v>33024</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0138777501451004</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.008917487847333134</v>
+        <v>0.008640648345943002</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02100176866687958</v>
+        <v>0.02057920683756393</v>
       </c>
     </row>
     <row r="26">
@@ -6664,7 +6664,7 @@
         <v>777560</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>772896</v>
+        <v>773417</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>778583</v>
@@ -6673,7 +6673,7 @@
         <v>0.9986865598218474</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9926952654413215</v>
+        <v>0.9933645201892728</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>1</v>
@@ -6685,19 +6685,19 @@
         <v>804919</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>793209</v>
+        <v>792801</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>813630</v>
+        <v>812578</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9742815952619351</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.960107622819388</v>
+        <v>0.9596132341241729</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9848247082733308</v>
+        <v>0.9835523093121965</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1485</v>
@@ -6706,19 +6706,19 @@
         <v>1582480</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1571047</v>
+        <v>1571726</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1590440</v>
+        <v>1590884</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9861222498548996</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9789982313331203</v>
+        <v>0.9794207931624357</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9910825121526667</v>
+        <v>0.991359351654057</v>
       </c>
     </row>
     <row r="27">
@@ -6810,19 +6810,19 @@
         <v>19096</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>12357</v>
+        <v>11322</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>29226</v>
+        <v>28094</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.005625791972198139</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.003640441964778206</v>
+        <v>0.003335593122821811</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.008610046315213045</v>
+        <v>0.008276559108519611</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>81</v>
@@ -6831,19 +6831,19 @@
         <v>86874</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>70095</v>
+        <v>69247</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>107678</v>
+        <v>107504</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0245092683986497</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01977555351011983</v>
+        <v>0.01953636787609515</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03037864013392986</v>
+        <v>0.0303293833949761</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>100</v>
@@ -6852,19 +6852,19 @@
         <v>105970</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>89045</v>
+        <v>86069</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>127760</v>
+        <v>127268</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01527189569889133</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01283276076392343</v>
+        <v>0.01240378695154584</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01841215079889297</v>
+        <v>0.01834125632238676</v>
       </c>
     </row>
     <row r="29">
@@ -6881,19 +6881,19 @@
         <v>3375254</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3365124</v>
+        <v>3366256</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3381993</v>
+        <v>3383028</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9943742080278019</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9913899536847868</v>
+        <v>0.9917234408914811</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9963595580352218</v>
+        <v>0.9966644068771784</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3257</v>
@@ -6902,19 +6902,19 @@
         <v>3457668</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3436864</v>
+        <v>3437038</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3474447</v>
+        <v>3475295</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9754907316013502</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9696213598660705</v>
+        <v>0.9696706166050238</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9802244464898803</v>
+        <v>0.9804636321239049</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6469</v>
@@ -6923,19 +6923,19 @@
         <v>6832922</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6811132</v>
+        <v>6811624</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6849847</v>
+        <v>6852823</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9847281043011087</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.981587849201107</v>
+        <v>0.9816587436776133</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9871672392360765</v>
+        <v>0.9875962130484541</v>
       </c>
     </row>
     <row r="30">
@@ -7271,19 +7271,19 @@
         <v>3097</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7928</v>
+        <v>7192</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.009711867703540832</v>
+        <v>0.009711867703540834</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00249310459546521</v>
+        <v>0.002467650553856681</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02486606896422066</v>
+        <v>0.02255613677922682</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -7292,19 +7292,19 @@
         <v>13556</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8364</v>
+        <v>8193</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>25982</v>
+        <v>24813</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.04289154915349936</v>
+        <v>0.04289154915349937</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02646198892851383</v>
+        <v>0.02592208506931909</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08220447729213229</v>
+        <v>0.07850776316783743</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>24</v>
@@ -7313,19 +7313,19 @@
         <v>16653</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10668</v>
+        <v>10509</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>28394</v>
+        <v>28511</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.02622894693563792</v>
+        <v>0.02622894693563793</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01680208577097473</v>
+        <v>0.01655229436658786</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04472197563165003</v>
+        <v>0.04490509895505859</v>
       </c>
     </row>
     <row r="5">
@@ -7342,19 +7342,19 @@
         <v>315748</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>310917</v>
+        <v>311653</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>318050</v>
+        <v>318058</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9902881322964592</v>
+        <v>0.9902881322964594</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9751339310357792</v>
+        <v>0.9774438632207739</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9975068954045346</v>
+        <v>0.9975323494461432</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>518</v>
@@ -7363,19 +7363,19 @@
         <v>302505</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>290079</v>
+        <v>291248</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>307697</v>
+        <v>307868</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9571084508465008</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9177955227078688</v>
+        <v>0.9214922368321624</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9735380110714864</v>
+        <v>0.9740779149306807</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>845</v>
@@ -7384,19 +7384,19 @@
         <v>618253</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>606512</v>
+        <v>606395</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>624238</v>
+        <v>624397</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9737710530643623</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9552780243683514</v>
+        <v>0.9550949010449409</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9831979142290252</v>
+        <v>0.983447705633412</v>
       </c>
     </row>
     <row r="6">
@@ -7488,19 +7488,19 @@
         <v>4045</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9720</v>
+        <v>10763</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.007655497273968988</v>
+        <v>0.007655497273968986</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001745477866256631</v>
+        <v>0.001717031055471376</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01839723295852292</v>
+        <v>0.02037219043822379</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>29</v>
@@ -7509,19 +7509,19 @@
         <v>20487</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>13493</v>
+        <v>13884</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>28805</v>
+        <v>28584</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03762198874161866</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02477809434996574</v>
+        <v>0.02549726117530697</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05289730899196313</v>
+        <v>0.052491720572331</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>33</v>
@@ -7530,19 +7530,19 @@
         <v>24531</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>16840</v>
+        <v>17326</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>34145</v>
+        <v>34873</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.02286519642519346</v>
+        <v>0.02286519642519345</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01569606496109298</v>
+        <v>0.01614932069171848</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03182603045106335</v>
+        <v>0.03250461931939433</v>
       </c>
     </row>
     <row r="8">
@@ -7559,19 +7559,19 @@
         <v>524281</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>518606</v>
+        <v>517563</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>527404</v>
+        <v>527419</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9923445027260311</v>
+        <v>0.992344502726031</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9816027670414772</v>
+        <v>0.9796278095617772</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9982545221337434</v>
+        <v>0.9982829689445287</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>685</v>
@@ -7580,19 +7580,19 @@
         <v>524054</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>515736</v>
+        <v>515957</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>531048</v>
+        <v>530657</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9623780112583814</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9471026910080371</v>
+        <v>0.9475082794276695</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9752219056500343</v>
+        <v>0.9745027388246932</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1061</v>
@@ -7601,19 +7601,19 @@
         <v>1048336</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1038722</v>
+        <v>1037994</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1056027</v>
+        <v>1055541</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9771348035748066</v>
+        <v>0.9771348035748064</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9681739695489374</v>
+        <v>0.9674953806806061</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9843039350389069</v>
+        <v>0.9838506793082817</v>
       </c>
     </row>
     <row r="9">
@@ -7705,19 +7705,19 @@
         <v>3612</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1637</v>
+        <v>1278</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7678</v>
+        <v>7577</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01143100364762518</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005179290139608315</v>
+        <v>0.004042960011954983</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02429874662054662</v>
+        <v>0.02397972409999018</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -7726,19 +7726,19 @@
         <v>12048</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7350</v>
+        <v>7793</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17563</v>
+        <v>18106</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03380634746744932</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02062466519846525</v>
+        <v>0.021865902848483</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04928032406195539</v>
+        <v>0.05080452454536345</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>28</v>
@@ -7747,19 +7747,19 @@
         <v>15660</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10317</v>
+        <v>10295</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>21618</v>
+        <v>22640</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.02329069171391966</v>
+        <v>0.02329069171391965</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01534429080588853</v>
+        <v>0.01531156349470449</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03215220322093327</v>
+        <v>0.03367151049447571</v>
       </c>
     </row>
     <row r="11">
@@ -7776,19 +7776,19 @@
         <v>312381</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>308315</v>
+        <v>308416</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>314356</v>
+        <v>314715</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9885689963523748</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9757012533794542</v>
+        <v>0.9760202759000102</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9948207098603918</v>
+        <v>0.9959570399880452</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>514</v>
@@ -7797,19 +7797,19 @@
         <v>344333</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>338818</v>
+        <v>338275</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>349031</v>
+        <v>348588</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9661936525325507</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9507196759380444</v>
+        <v>0.9491954754546365</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9793753348015346</v>
+        <v>0.9781340971515171</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>868</v>
@@ -7818,19 +7818,19 @@
         <v>656715</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>650757</v>
+        <v>649735</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>662058</v>
+        <v>662080</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9767093082860806</v>
+        <v>0.9767093082860804</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9678477967790668</v>
+        <v>0.9663284895055242</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9846557091941115</v>
+        <v>0.9846884365052955</v>
       </c>
     </row>
     <row r="12">
@@ -7922,19 +7922,19 @@
         <v>4752</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1951</v>
+        <v>1990</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9903</v>
+        <v>9856</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01273602979339954</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005228771113245107</v>
+        <v>0.005331986649376743</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02653923510429942</v>
+        <v>0.02641236959992791</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>27</v>
@@ -7943,19 +7943,19 @@
         <v>18638</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12069</v>
+        <v>12199</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>27798</v>
+        <v>28014</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.04417057701951234</v>
+        <v>0.04417057701951235</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02860112321371576</v>
+        <v>0.02891096862160357</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0658771279235343</v>
+        <v>0.06638923567977459</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>34</v>
@@ -7964,19 +7964,19 @@
         <v>23391</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>16408</v>
+        <v>16001</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>33115</v>
+        <v>32474</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.02941827746687923</v>
+        <v>0.02941827746687922</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02063647736497459</v>
+        <v>0.02012390248777763</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04164837091816496</v>
+        <v>0.04084255586618686</v>
       </c>
     </row>
     <row r="14">
@@ -7993,19 +7993,19 @@
         <v>368393</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>363242</v>
+        <v>363289</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>371194</v>
+        <v>371155</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9872639702066006</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9734607648957009</v>
+        <v>0.9735876304000721</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.994771228886755</v>
+        <v>0.9946680133506234</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>572</v>
@@ -8014,19 +8014,19 @@
         <v>403323</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>394163</v>
+        <v>393947</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>409892</v>
+        <v>409762</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9558294229804878</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9341228720764657</v>
+        <v>0.9336107643202227</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9713988767862842</v>
+        <v>0.9710890313783963</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>857</v>
@@ -8035,19 +8035,19 @@
         <v>771716</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>761992</v>
+        <v>762633</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>778699</v>
+        <v>779106</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.970581722533121</v>
+        <v>0.9705817225331207</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.958351629081835</v>
+        <v>0.9591574441338131</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9793635226350255</v>
+        <v>0.9798760975122225</v>
       </c>
     </row>
     <row r="15">
@@ -8142,7 +8142,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3604</v>
+        <v>3249</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.005063895176907658</v>
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01752534557360681</v>
+        <v>0.01579991352535707</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -8160,19 +8160,19 @@
         <v>7431</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4371</v>
+        <v>4240</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11366</v>
+        <v>11312</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.0328028649572699</v>
+        <v>0.03280286495726989</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01929654423106317</v>
+        <v>0.01871492294315295</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05017029623085112</v>
+        <v>0.04993366436955802</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>19</v>
@@ -8181,19 +8181,19 @@
         <v>8473</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4990</v>
+        <v>5377</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>12966</v>
+        <v>12839</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01960329155215215</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01154586125832333</v>
+        <v>0.01244087136426485</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02999878949788982</v>
+        <v>0.02970526071955974</v>
       </c>
     </row>
     <row r="17">
@@ -8210,16 +8210,16 @@
         <v>204624</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>202061</v>
+        <v>202416</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>205665</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9949361048230922</v>
+        <v>0.9949361048230924</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9824746544263931</v>
+        <v>0.9842000864746429</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -8231,19 +8231,19 @@
         <v>219110</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>215175</v>
+        <v>215229</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>222170</v>
+        <v>222301</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9671971350427302</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9498297037691492</v>
+        <v>0.950066335630442</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.980703455768937</v>
+        <v>0.9812850770568471</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>750</v>
@@ -8252,19 +8252,19 @@
         <v>423733</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>419240</v>
+        <v>419367</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>427216</v>
+        <v>426829</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9803967084478478</v>
+        <v>0.980396708447848</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9700012105021099</v>
+        <v>0.9702947392804403</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9884541387416766</v>
+        <v>0.987559128635735</v>
       </c>
     </row>
     <row r="18">
@@ -8356,19 +8356,19 @@
         <v>9702</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5772</v>
+        <v>5931</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>15113</v>
+        <v>15746</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03583783168153512</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02132141801095451</v>
+        <v>0.0219100502267604</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05582938965923673</v>
+        <v>0.05816715176870717</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>34</v>
@@ -8377,19 +8377,19 @@
         <v>14423</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9876</v>
+        <v>9987</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>21366</v>
+        <v>20136</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0548200767755222</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03753579883261925</v>
+        <v>0.03796018873909748</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08120897235168298</v>
+        <v>0.07653413281760577</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>52</v>
@@ -8398,19 +8398,19 @@
         <v>24125</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>17935</v>
+        <v>18063</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>31535</v>
+        <v>31789</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04519368737749784</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03359797755072103</v>
+        <v>0.03383725024744158</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05907622345173863</v>
+        <v>0.05955070955363442</v>
       </c>
     </row>
     <row r="20">
@@ -8427,19 +8427,19 @@
         <v>261005</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>255594</v>
+        <v>254961</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>264935</v>
+        <v>264776</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9641621683184649</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9441706103407634</v>
+        <v>0.9418328482312929</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9786785819890454</v>
+        <v>0.9780899497732395</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>425</v>
@@ -8448,19 +8448,19 @@
         <v>248676</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>241733</v>
+        <v>242963</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>253223</v>
+        <v>253112</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9451799232244777</v>
+        <v>0.9451799232244779</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9187910276483168</v>
+        <v>0.9234658671823945</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9624642011673805</v>
+        <v>0.9620398112609025</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>778</v>
@@ -8469,19 +8469,19 @@
         <v>509681</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>502271</v>
+        <v>502017</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>515871</v>
+        <v>515743</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9548063126225022</v>
+        <v>0.9548063126225023</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9409237765482614</v>
+        <v>0.9404492904463656</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9664020224492789</v>
+        <v>0.9661627497525582</v>
       </c>
     </row>
     <row r="21">
@@ -8573,19 +8573,19 @@
         <v>14677</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8626</v>
+        <v>8379</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>23422</v>
+        <v>23265</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02048635985551373</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0120404312616435</v>
+        <v>0.01169568574744988</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03269183428392779</v>
+        <v>0.03247248133986152</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>90</v>
@@ -8594,19 +8594,19 @@
         <v>70091</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>57088</v>
+        <v>57047</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>85851</v>
+        <v>86825</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.09102543001062165</v>
+        <v>0.09102543001062167</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07413941247548272</v>
+        <v>0.07408606854978912</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1114927956518834</v>
+        <v>0.1127577102604171</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>105</v>
@@ -8615,19 +8615,19 @@
         <v>84768</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>69975</v>
+        <v>69849</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>105016</v>
+        <v>104597</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05702697297244133</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04707492371703231</v>
+        <v>0.04699027656040639</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07064852031774246</v>
+        <v>0.07036674174854905</v>
       </c>
     </row>
     <row r="23">
@@ -8644,19 +8644,19 @@
         <v>701766</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>693021</v>
+        <v>693178</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>707817</v>
+        <v>708064</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9795136401444862</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9673081657160718</v>
+        <v>0.9675275186601384</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9879595687383564</v>
+        <v>0.9883043142525499</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>867</v>
@@ -8665,19 +8665,19 @@
         <v>699923</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>684163</v>
+        <v>683189</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>712926</v>
+        <v>712967</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9089745699893783</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8885072043481167</v>
+        <v>0.887242289739583</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9258605875245172</v>
+        <v>0.9259139314502108</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1448</v>
@@ -8686,19 +8686,19 @@
         <v>1401689</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1381441</v>
+        <v>1381860</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1416482</v>
+        <v>1416608</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9429730270275587</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9293514796822565</v>
+        <v>0.9296332582514507</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9529250762829679</v>
+        <v>0.9530097234395938</v>
       </c>
     </row>
     <row r="24">
@@ -8790,19 +8790,19 @@
         <v>2827</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7787</v>
+        <v>8892</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.003541927223690277</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0009170105886593602</v>
+        <v>0.000925081553164495</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.009757013113685091</v>
+        <v>0.0111415939367898</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>15</v>
@@ -8811,19 +8811,19 @@
         <v>11809</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>6518</v>
+        <v>6791</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>19778</v>
+        <v>19860</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01422800743114682</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.007852694375899543</v>
+        <v>0.008181507329032266</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02382918773687704</v>
+        <v>0.02392753360518424</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>18</v>
@@ -8832,19 +8832,19 @@
         <v>14636</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>8366</v>
+        <v>8606</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>22708</v>
+        <v>23361</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.008989728187260891</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.005138695300857825</v>
+        <v>0.005285801469576665</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01394792744324848</v>
+        <v>0.01434896626610878</v>
       </c>
     </row>
     <row r="26">
@@ -8861,19 +8861,19 @@
         <v>795245</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>790285</v>
+        <v>789180</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>797340</v>
+        <v>797334</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9964580727763096</v>
+        <v>0.9964580727763097</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9902429868863152</v>
+        <v>0.9888584060632107</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9990829894113407</v>
+        <v>0.9990749184468355</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1045</v>
@@ -8882,19 +8882,19 @@
         <v>818184</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>810215</v>
+        <v>810133</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>823475</v>
+        <v>823202</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9857719925688532</v>
+        <v>0.9857719925688533</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9761708122631237</v>
+        <v>0.9760724663948158</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9921473056241009</v>
+        <v>0.9918184926709679</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1804</v>
@@ -8903,19 +8903,19 @@
         <v>1613429</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1605357</v>
+        <v>1604704</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1619699</v>
+        <v>1619459</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9910102718127392</v>
+        <v>0.9910102718127393</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9860520725567513</v>
+        <v>0.9856510337338911</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.994861304699142</v>
+        <v>0.9947141985304234</v>
       </c>
     </row>
     <row r="27">
@@ -9007,19 +9007,19 @@
         <v>43753</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>33237</v>
+        <v>33261</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>57042</v>
+        <v>55962</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01240439304749517</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.009423033397550198</v>
+        <v>0.009429766511322778</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01617218722224698</v>
+        <v>0.01586575757239109</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>254</v>
@@ -9028,19 +9028,19 @@
         <v>168484</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>144723</v>
+        <v>148909</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>189991</v>
+        <v>193056</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.04518691758360206</v>
+        <v>0.04518691758360205</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.038814463212143</v>
+        <v>0.03993715915549653</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05095528284109851</v>
+        <v>0.0517771648545118</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>313</v>
@@ -9049,19 +9049,19 @@
         <v>212236</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>188376</v>
+        <v>187197</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>239407</v>
+        <v>237790</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02925061775368004</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0259621351950043</v>
+        <v>0.02579970112851944</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03299524051875944</v>
+        <v>0.03277247341510115</v>
       </c>
     </row>
     <row r="29">
@@ -9078,19 +9078,19 @@
         <v>3483444</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3470155</v>
+        <v>3471235</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3493960</v>
+        <v>3493936</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9875956069525049</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9838278127777536</v>
+        <v>0.9841342424276089</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.99057696660245</v>
+        <v>0.9905702334886772</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5099</v>
@@ -9099,19 +9099,19 @@
         <v>3560108</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3538601</v>
+        <v>3535536</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3583869</v>
+        <v>3579683</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.954813082416398</v>
+        <v>0.9548130824163978</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9490447171589015</v>
+        <v>0.9482228351454883</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9611855367878571</v>
+        <v>0.9600628408445037</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8411</v>
@@ -9120,19 +9120,19 @@
         <v>7043553</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>7016382</v>
+        <v>7017999</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>7067413</v>
+        <v>7068592</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.97074938224632</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9670047594812405</v>
+        <v>0.9672275265848985</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9740378648049957</v>
+        <v>0.9742002988714806</v>
       </c>
     </row>
     <row r="30">
